--- a/03 detailed reviewing results.xlsx
+++ b/03 detailed reviewing results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{36E5B75E-3AD0-4528-909D-07F5FE82EBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FA14A29D-F2B8-4684-A93D-FFBAE4FAA881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reviewing Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reviewing Results'!$A$2:$O$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reviewing Results'!$A$2:$N$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1616" uniqueCount="183">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1602" uniqueCount="182">
   <si>
     <t>Title</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Veto?</t>
-  </si>
-  <si>
-    <t>Decision after Veto</t>
   </si>
   <si>
     <t>Reason JP</t>
@@ -1670,98 +1667,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="O153" sqref="O153"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="38"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M2" s="42"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>82</v>
       </c>
@@ -1774,37 +1766,34 @@
         <v>80</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="18">
+      <c r="M3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>15</v>
       </c>
@@ -1819,31 +1808,30 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>37</v>
       </c>
@@ -1858,31 +1846,30 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="M5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>73</v>
       </c>
@@ -1896,37 +1883,34 @@
         <v>80</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="M6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>49</v>
       </c>
@@ -1941,31 +1925,30 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="M7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>55</v>
       </c>
@@ -1980,37 +1963,34 @@
         <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="M8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>61</v>
       </c>
@@ -2025,31 +2005,30 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="M9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>67</v>
       </c>
@@ -2062,37 +2041,34 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="M10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>36</v>
       </c>
@@ -2107,31 +2083,30 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="M11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>87</v>
       </c>
@@ -2140,31 +2115,30 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="M12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>51</v>
       </c>
@@ -2179,31 +2153,30 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="M13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>41</v>
       </c>
@@ -2214,29 +2187,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="M14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>90</v>
       </c>
@@ -2250,37 +2223,34 @@
         <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="M15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
@@ -2294,37 +2264,34 @@
         <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="M16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>66</v>
       </c>
@@ -2339,31 +2306,30 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="M17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>38</v>
       </c>
@@ -2377,29 +2343,29 @@
         <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="M18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>75</v>
       </c>
@@ -2414,31 +2380,30 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="M19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>56</v>
       </c>
@@ -2450,37 +2415,34 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="M20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>9</v>
       </c>
@@ -2495,31 +2457,30 @@
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="M21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
@@ -2533,29 +2494,29 @@
         <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -2570,31 +2531,30 @@
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="M23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>29</v>
       </c>
@@ -2609,31 +2569,30 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="M24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>78</v>
       </c>
@@ -2648,31 +2607,30 @@
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="11">
+      <c r="M25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>72</v>
       </c>
@@ -2687,31 +2645,30 @@
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="11">
+      <c r="M26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>74</v>
       </c>
@@ -2726,31 +2683,30 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="11">
+      <c r="M27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>11</v>
       </c>
@@ -2765,31 +2721,30 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" s="11">
+      <c r="M28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>16</v>
       </c>
@@ -2804,31 +2759,30 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" s="11">
+      <c r="M29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="11">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -2845,31 +2799,30 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="11">
+      <c r="M30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="11">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>19</v>
       </c>
@@ -2884,31 +2837,30 @@
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" s="11">
+      <c r="M31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
@@ -2921,37 +2873,34 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" s="11">
+      <c r="M32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>52</v>
       </c>
@@ -2966,31 +2915,30 @@
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="11">
+      <c r="M33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>45</v>
       </c>
@@ -3005,31 +2953,30 @@
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" s="11">
+      <c r="M34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="11">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>98</v>
       </c>
@@ -3044,31 +2991,30 @@
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O35" s="11">
+      <c r="M35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="11">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>64</v>
       </c>
@@ -3083,31 +3029,30 @@
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" s="11">
+      <c r="M36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>100</v>
       </c>
@@ -3122,31 +3067,30 @@
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O37" s="11">
+      <c r="M37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>101</v>
       </c>
@@ -3161,31 +3105,30 @@
         <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O38" s="11">
+      <c r="M38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="11">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>17</v>
       </c>
@@ -3200,37 +3143,34 @@
         <v>80</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O39" s="11">
+      <c r="M39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>57</v>
       </c>
@@ -3245,37 +3185,34 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O40" s="11">
+      <c r="M40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>7</v>
       </c>
@@ -3290,31 +3227,30 @@
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" s="11">
+      <c r="M41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="11">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>26</v>
       </c>
@@ -3329,31 +3265,30 @@
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" s="11">
+      <c r="M42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="11">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>21</v>
       </c>
@@ -3368,31 +3303,30 @@
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O43" s="11">
+      <c r="M43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>62</v>
       </c>
@@ -3407,31 +3341,30 @@
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O44" s="11">
+      <c r="M44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>102</v>
       </c>
@@ -3446,31 +3379,30 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O45" s="11">
+      <c r="M45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="11">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>50</v>
       </c>
@@ -3485,31 +3417,30 @@
         <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O46" s="11">
+      <c r="M46" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>5</v>
       </c>
@@ -3523,37 +3454,34 @@
         <v>80</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O47" s="11">
+      <c r="M47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="11">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>71</v>
       </c>
@@ -3568,31 +3496,30 @@
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O48" s="11">
+      <c r="M48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>70</v>
       </c>
@@ -3604,37 +3531,34 @@
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O49" s="11">
+      <c r="M49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>39</v>
       </c>
@@ -3649,31 +3573,30 @@
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O50" s="10">
+      <c r="M50" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>12</v>
       </c>
@@ -3688,31 +3611,30 @@
         <v>80</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O51" s="10"/>
-    </row>
-    <row r="52" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>81</v>
       </c>
@@ -3727,31 +3649,30 @@
         <v>79</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O52" s="10"/>
-    </row>
-    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M52" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>10</v>
       </c>
@@ -3765,29 +3686,29 @@
         <v>80</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N53" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O53" s="10"/>
-    </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>53</v>
       </c>
@@ -3801,31 +3722,31 @@
         <v>80</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O54" s="10"/>
-    </row>
-    <row r="55" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N54" s="10"/>
+    </row>
+    <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -3838,31 +3759,30 @@
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O55" s="11"/>
-    </row>
-    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M55" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>65</v>
       </c>
@@ -3877,31 +3797,31 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N56" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O56" s="10"/>
-    </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2</v>
@@ -3914,33 +3834,32 @@
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" t="s">
         <v>2</v>
       </c>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O57" s="11">
+      <c r="M57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>80</v>
@@ -3953,33 +3872,32 @@
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M58" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2</v>
@@ -3992,33 +3910,32 @@
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" t="s">
         <v>2</v>
       </c>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O59" s="11">
+      <c r="M59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>79</v>
@@ -4031,33 +3948,32 @@
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O60" s="11"/>
-    </row>
-    <row r="61" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2</v>
@@ -4070,31 +3986,30 @@
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O61" s="11">
+      <c r="M61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="11">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>83</v>
       </c>
@@ -4109,31 +4024,30 @@
         <v>80</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O62" s="10"/>
-    </row>
-    <row r="63" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M62" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>47</v>
       </c>
@@ -4144,29 +4058,29 @@
         <v>80</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N63" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O63" s="10"/>
-    </row>
-    <row r="64" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N63" s="10"/>
+    </row>
+    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>20</v>
       </c>
@@ -4178,34 +4092,34 @@
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N64" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O64" s="10"/>
-    </row>
-    <row r="65" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
@@ -4215,33 +4129,32 @@
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O65" s="11"/>
-    </row>
-    <row r="66" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
@@ -4254,31 +4167,30 @@
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M66" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>59</v>
       </c>
@@ -4293,33 +4205,32 @@
         <v>79</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M67" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>79</v>
@@ -4332,31 +4243,30 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>84</v>
       </c>
@@ -4367,31 +4277,30 @@
         <v>80</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O69" s="10"/>
-    </row>
-    <row r="70" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M69" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>42</v>
       </c>
@@ -4402,31 +4311,31 @@
         <v>80</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O70" s="10"/>
-    </row>
-    <row r="71" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -4439,31 +4348,30 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" t="s">
         <v>2</v>
       </c>
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O71" s="11">
+      <c r="M71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N71" s="11">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>43</v>
       </c>
@@ -4474,31 +4382,31 @@
         <v>80</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N72" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O72" s="10"/>
-    </row>
-    <row r="73" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -4511,31 +4419,30 @@
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O73" s="11">
+      <c r="M73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="11">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>85</v>
       </c>
@@ -4547,37 +4454,34 @@
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L74" t="s">
         <v>104</v>
       </c>
-      <c r="M74" t="s">
-        <v>178</v>
-      </c>
-      <c r="N74" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O74" s="10"/>
-    </row>
-    <row r="75" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M74" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
@@ -4590,31 +4494,30 @@
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O75" s="11"/>
-    </row>
-    <row r="76" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M75" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>25</v>
       </c>
@@ -4627,31 +4530,30 @@
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O76" s="10"/>
-    </row>
-    <row r="77" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M76" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>76</v>
       </c>
@@ -4664,33 +4566,32 @@
         <v>79</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O77" s="10"/>
-    </row>
-    <row r="78" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M77" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>79</v>
@@ -4703,31 +4604,30 @@
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O78" s="11"/>
-    </row>
-    <row r="79" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>86</v>
       </c>
@@ -4736,34 +4636,33 @@
         <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O79" s="10"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N79" s="10"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
@@ -4776,31 +4675,31 @@
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N80" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -4813,29 +4712,29 @@
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N81" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O81" s="11"/>
-    </row>
-    <row r="82" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>77</v>
       </c>
@@ -4848,31 +4747,30 @@
         <v>79</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O82" s="10"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M82" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>32</v>
       </c>
@@ -4887,31 +4785,30 @@
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O83" s="10"/>
-    </row>
-    <row r="84" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M83" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N83" s="10"/>
+    </row>
+    <row r="84" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>88</v>
       </c>
@@ -4926,31 +4823,30 @@
         <v>80</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O84" s="10"/>
-    </row>
-    <row r="85" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M84" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>89</v>
       </c>
@@ -4965,31 +4861,30 @@
         <v>80</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O85" s="10"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M85" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>35</v>
       </c>
@@ -5002,33 +4897,32 @@
         <v>80</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O86" s="10"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M86" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N86" s="10"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
         <v>80</v>
@@ -5037,33 +4931,33 @@
         <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N87" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O87" s="11"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>91</v>
       </c>
@@ -5078,68 +4972,67 @@
         <v>80</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O88" s="10"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M88" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" t="s">
         <v>131</v>
       </c>
-      <c r="B89" t="s">
-        <v>132</v>
-      </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K89" t="s">
-        <v>178</v>
-      </c>
-      <c r="N89" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O89" s="11"/>
-    </row>
-    <row r="90" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>92</v>
       </c>
@@ -5152,31 +5045,30 @@
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O90" s="10"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M90" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N90" s="10"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>14</v>
       </c>
@@ -5191,31 +5083,30 @@
         <v>80</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O91" s="10"/>
-    </row>
-    <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M91" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N91" s="10"/>
+    </row>
+    <row r="92" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>58</v>
       </c>
@@ -5228,33 +5119,32 @@
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O92" s="10"/>
-    </row>
-    <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M92" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>79</v>
@@ -5267,68 +5157,68 @@
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N93" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O93" s="11"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K94" t="s">
-        <v>178</v>
-      </c>
-      <c r="N94" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M94" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
         <v>80</v>
@@ -5341,31 +5231,31 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O95" s="11"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -5378,29 +5268,29 @@
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J96" s="11"/>
       <c r="K96" t="s">
         <v>2</v>
       </c>
-      <c r="N96" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O96" s="11">
+      <c r="M96" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N96" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>31</v>
       </c>
@@ -5415,31 +5305,30 @@
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O97" s="10"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M97" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N97" s="10"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>40</v>
       </c>
@@ -5452,33 +5341,32 @@
         <v>80</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O98" s="10"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M98" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N98" s="10"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
         <v>80</v>
@@ -5491,31 +5379,31 @@
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N99" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O99" s="11"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
         <v>80</v>
@@ -5528,31 +5416,31 @@
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N100" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
         <v>80</v>
@@ -5565,31 +5453,31 @@
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N101" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O101" s="11"/>
-    </row>
-    <row r="102" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>79</v>
@@ -5602,29 +5490,29 @@
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N102" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>93</v>
       </c>
@@ -5639,31 +5527,30 @@
         <v>79</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O103" s="10"/>
-    </row>
-    <row r="104" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M103" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N103" s="10"/>
+    </row>
+    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>27</v>
       </c>
@@ -5676,31 +5563,30 @@
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O104" s="10"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M104" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N104" s="10"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>94</v>
       </c>
@@ -5713,65 +5599,63 @@
         <v>80</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O105" s="11"/>
-    </row>
-    <row r="106" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M105" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O106" s="11"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M106" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -5784,31 +5668,31 @@
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J107" s="11"/>
       <c r="K107" t="s">
         <v>2</v>
       </c>
-      <c r="N107" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O107" s="11">
+      <c r="M107" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" s="11">
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -5821,31 +5705,31 @@
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J108" s="11"/>
       <c r="K108" t="s">
         <v>2</v>
       </c>
-      <c r="N108" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O108" s="11">
+      <c r="M108" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" s="11">
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -5858,31 +5742,31 @@
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J109" s="11"/>
       <c r="K109" t="s">
         <v>2</v>
       </c>
-      <c r="N109" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O109" s="11">
+      <c r="M109" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N109" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
         <v>80</v>
@@ -5895,31 +5779,31 @@
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N110" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -5932,63 +5816,62 @@
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J111" s="11"/>
       <c r="K111" t="s">
         <v>2</v>
       </c>
-      <c r="N111" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O111" s="11">
+      <c r="M111" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N111" s="11">
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J112" s="11"/>
       <c r="K112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O112" s="11"/>
-    </row>
-    <row r="113" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M112" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="24" t="s">
         <v>46</v>
       </c>
@@ -6001,31 +5884,30 @@
         <v>79</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O113" s="11"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M113" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>69</v>
       </c>
@@ -6038,63 +5920,62 @@
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O114" s="11"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M114" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N114" s="11"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J115" s="11"/>
       <c r="K115" t="s">
-        <v>178</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O115" s="11"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
         <v>33</v>
       </c>
@@ -6109,70 +5990,69 @@
         <v>80</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O116" s="11"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M116" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K117" t="s">
-        <v>178</v>
-      </c>
-      <c r="N117" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O117" s="11"/>
-    </row>
-    <row r="118" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M117" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>79</v>
@@ -6185,29 +6065,29 @@
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N118" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O118" s="11"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M118" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
         <v>44</v>
       </c>
@@ -6220,31 +6100,30 @@
         <v>80</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O119" s="11"/>
-    </row>
-    <row r="120" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M119" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>3</v>
       </c>
@@ -6259,65 +6138,64 @@
         <v>79</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J120" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O120" s="11"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M120" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J121" s="11"/>
       <c r="K121" t="s">
-        <v>178</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O121" s="11"/>
-    </row>
-    <row r="122" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>79</v>
@@ -6330,34 +6208,34 @@
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N122" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O122" s="11"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M122" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" t="s">
         <v>151</v>
-      </c>
-      <c r="B123" t="s">
-        <v>152</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -6367,31 +6245,31 @@
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J123" s="11"/>
       <c r="K123" t="s">
+        <v>151</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N123" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O123" s="11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A124" s="25" t="s">
-        <v>153</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -6404,29 +6282,29 @@
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" t="s">
         <v>2</v>
       </c>
-      <c r="N124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O124" s="11">
+      <c r="M124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N124" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
         <v>8</v>
       </c>
@@ -6441,33 +6319,32 @@
         <v>80</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O125" s="11"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M125" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
         <v>80</v>
@@ -6480,29 +6357,29 @@
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N126" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O126" s="11"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M126" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
         <v>63</v>
       </c>
@@ -6517,31 +6394,30 @@
         <v>80</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O127" s="11"/>
-    </row>
-    <row r="128" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M127" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>97</v>
       </c>
@@ -6554,31 +6430,30 @@
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O128" s="11"/>
-    </row>
-    <row r="129" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M128" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
         <v>23</v>
       </c>
@@ -6591,33 +6466,32 @@
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J129" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O129" s="11"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M129" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N129" s="11"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" t="s">
         <v>80</v>
@@ -6630,29 +6504,29 @@
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N130" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O130" s="11"/>
-    </row>
-    <row r="131" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M130" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
         <v>60</v>
       </c>
@@ -6667,31 +6541,30 @@
         <v>79</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J131" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O131" s="11"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M131" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
         <v>68</v>
       </c>
@@ -6704,33 +6577,32 @@
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O132" s="11"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M132" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
         <v>80</v>
@@ -6743,29 +6615,29 @@
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N133" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O133" s="11"/>
-    </row>
-    <row r="134" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M133" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>54</v>
       </c>
@@ -6778,100 +6650,99 @@
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O134" s="11"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M134" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N134" s="11"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J135" s="11"/>
       <c r="K135" t="s">
-        <v>178</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O135" s="11"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s">
         <v>158</v>
       </c>
-      <c r="B136" t="s">
-        <v>159</v>
-      </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K136" t="s">
-        <v>178</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O136" s="11"/>
-    </row>
-    <row r="137" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>99</v>
       </c>
@@ -6884,73 +6755,72 @@
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O137" s="11"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M137" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K138" t="s">
-        <v>178</v>
-      </c>
-      <c r="N138" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O138" s="11"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M138" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N138" s="11"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -6960,31 +6830,31 @@
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J139" s="11"/>
       <c r="K139" t="s">
-        <v>152</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O139" s="11">
+        <v>151</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N139" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -6997,31 +6867,31 @@
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J140" s="11"/>
       <c r="K140" t="s">
         <v>2</v>
       </c>
-      <c r="N140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O140" s="11">
+      <c r="M140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N140" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -7034,31 +6904,31 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J141" s="11"/>
       <c r="K141" t="s">
         <v>2</v>
       </c>
-      <c r="N141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O141" s="11">
+      <c r="M141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N141" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
         <v>80</v>
@@ -7071,29 +6941,29 @@
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N142" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O142" s="11"/>
-    </row>
-    <row r="143" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M142" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N142" s="11"/>
+    </row>
+    <row r="143" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
         <v>28</v>
       </c>
@@ -7108,31 +6978,30 @@
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
-      <c r="N143" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O143" s="11"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M143" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N143" s="11"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
         <v>48</v>
       </c>
@@ -7145,33 +7014,32 @@
         <v>80</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O144" s="11"/>
-    </row>
-    <row r="145" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M144" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>79</v>
@@ -7184,29 +7052,29 @@
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J145" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N145" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O145" s="11"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M145" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
         <v>30</v>
       </c>
@@ -7221,68 +7089,67 @@
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O146" s="11"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M146" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B147" t="s">
         <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N147" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O147" s="11"/>
-    </row>
-    <row r="148" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M147" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N147" s="11"/>
+    </row>
+    <row r="148" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>24</v>
       </c>
@@ -7295,33 +7162,32 @@
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
-      <c r="N148" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O148" s="11"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M148" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N148" s="11"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -7334,29 +7200,29 @@
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J149" s="11"/>
       <c r="K149" t="s">
         <v>2</v>
       </c>
-      <c r="N149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O149" s="11">
+      <c r="M149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N149" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
         <v>103</v>
       </c>
@@ -7371,31 +7237,30 @@
         <v>80</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O150" s="11"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M150" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N150" s="11"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
         <v>34</v>
       </c>
@@ -7408,33 +7273,32 @@
         <v>80</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J151" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L151" s="2"/>
+      <c r="M151" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N151" s="11"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="27" t="s">
         <v>179</v>
-      </c>
-      <c r="K151" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O151" s="11"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A152" s="27" t="s">
-        <v>180</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>79</v>
@@ -7447,34 +7311,34 @@
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J152" s="20" t="s">
         <v>79</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O152" s="11"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N152" s="11"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -7484,34 +7348,34 @@
       </c>
       <c r="E153" s="11"/>
       <c r="F153" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J153" s="11"/>
       <c r="K153" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N153" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O153" s="11">
+      <c r="M153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N153" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>2</v>
@@ -7521,38 +7385,37 @@
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J154" s="12"/>
       <c r="K154" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O154" s="12">
+      <c r="M154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N154" s="12">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O151">
-      <sortCondition ref="O2:O151"/>
+  <autoFilter ref="A2:N154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N151">
+      <sortCondition ref="N2:N151"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="9">
-    <mergeCell ref="O1:O2"/>
+  <mergeCells count="8">
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
@@ -7560,7 +7423,6 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
